--- a/biology/Médecine/Comité_d'évaluation_des_risques_en_pharmacovigilance/Comité_d'évaluation_des_risques_en_pharmacovigilance.xlsx
+++ b/biology/Médecine/Comité_d'évaluation_des_risques_en_pharmacovigilance/Comité_d'évaluation_des_risques_en_pharmacovigilance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_d%27%C3%A9valuation_des_risques_en_pharmacovigilance</t>
+          <t>Comité_d'évaluation_des_risques_en_pharmacovigilance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Comité d'évaluation des risques en pharmacovigilance (en anglais : Pharmacovigilance Risk Assessment Committee, PRAC) est un comité de l'Agence européenne des médicaments (EMA).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_d%27%C3%A9valuation_des_risques_en_pharmacovigilance</t>
+          <t>Comité_d'évaluation_des_risques_en_pharmacovigilance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce comité fournit l’évaluation scientifique en matière de pharmacovigilance et émet des recommandations au Comité européen des médicaments à usage humain (CHMP). En outre, il est chargé de la détection et l'analyse des signaux de risques d'effets indésirables, l'évaluation de la balance bénéfice/risque post-AMM des médicaments commercialisés, de la création d’une catégorie de médicaments à surveillance supplémentaire et de l'émission des recommandations sur la communication en matière de risque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité fournit l’évaluation scientifique en matière de pharmacovigilance et émet des recommandations au Comité européen des médicaments à usage humain (CHMP). En outre, il est chargé de la détection et l'analyse des signaux de risques d'effets indésirables, l'évaluation de la balance bénéfice/risque post-AMM des médicaments commercialisés, de la création d’une catégorie de médicaments à surveillance supplémentaire et de l'émission des recommandations sur la communication en matière de risque.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_d%27%C3%A9valuation_des_risques_en_pharmacovigilance</t>
+          <t>Comité_d'évaluation_des_risques_en_pharmacovigilance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il s'agit d'un comité scientifique créé en 2012 en remplacement du Pharmacovigilance Working Party. Il est composé de[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il s'agit d'un comité scientifique créé en 2012 en remplacement du Pharmacovigilance Working Party. Il est composé de :
 1 président et un vice-président
 1 représentant par État Membre de l'Union européenne ainsi que de l'Islande et de la Norvège (+ 1 suppléant)
 6 experts proposés par la Commission européenne
